--- a/Comparison.xlsx
+++ b/Comparison.xlsx
@@ -5,14 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldo\IdeaProjects\bitsorter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ramdom Data" sheetId="1" r:id="rId1"/>
+    <sheet name="CountBit Parameter RD" sheetId="2" r:id="rId2"/>
+    <sheet name="Sorted Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Almost Sorted" sheetId="4" r:id="rId4"/>
+    <sheet name="Reverse Sorted" sheetId="5" r:id="rId5"/>
+    <sheet name="Reverse Almost Sorted" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
   <si>
     <t>BitSorterUIntOptimized2</t>
   </si>
@@ -43,12 +48,30 @@
   <si>
     <t>JavaParallel</t>
   </si>
+  <si>
+    <t>BitSorterUIntOptimized(16)</t>
+  </si>
+  <si>
+    <t>BitSorterUIntOptimized(8)</t>
+  </si>
+  <si>
+    <t>BitSorterUIntOptimized(24)</t>
+  </si>
+  <si>
+    <t>BitSorterUIntOptimized(12)</t>
+  </si>
+  <si>
+    <t>BitSorterUIntOptimized(20)</t>
+  </si>
+  <si>
+    <t>Counting Bit Sort parameter from 8 bits to 24 bits</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +84,14 @@
       <color rgb="FF6897BB"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,11 +114,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,7 +224,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$5</c:f>
+              <c:f>'Ramdom Data'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -213,7 +245,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$6:$A$9</c:f>
+              <c:f>'Ramdom Data'!$A$6:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -234,7 +266,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$6:$B$9</c:f>
+              <c:f>'Ramdom Data'!$B$6:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -264,7 +296,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$5</c:f>
+              <c:f>'Ramdom Data'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -285,7 +317,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$6:$A$9</c:f>
+              <c:f>'Ramdom Data'!$A$6:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -306,7 +338,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$6:$C$9</c:f>
+              <c:f>'Ramdom Data'!$C$6:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -336,7 +368,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$5</c:f>
+              <c:f>'Ramdom Data'!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -357,7 +389,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$6:$A$9</c:f>
+              <c:f>'Ramdom Data'!$A$6:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -378,7 +410,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$6:$D$9</c:f>
+              <c:f>'Ramdom Data'!$D$6:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -408,7 +440,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$E$5</c:f>
+              <c:f>'Ramdom Data'!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -429,7 +461,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$6:$A$9</c:f>
+              <c:f>'Ramdom Data'!$A$6:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -450,7 +482,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$6:$E$9</c:f>
+              <c:f>'Ramdom Data'!$E$6:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -480,7 +512,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$F$5</c:f>
+              <c:f>'Ramdom Data'!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -501,7 +533,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$6:$A$9</c:f>
+              <c:f>'Ramdom Data'!$A$6:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -522,7 +554,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$6:$F$9</c:f>
+              <c:f>'Ramdom Data'!$F$6:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -552,7 +584,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$G$5</c:f>
+              <c:f>'Ramdom Data'!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -575,7 +607,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$6:$A$9</c:f>
+              <c:f>'Ramdom Data'!$A$6:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -596,7 +628,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$6:$G$9</c:f>
+              <c:f>'Ramdom Data'!$G$6:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -905,7 +937,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$31</c:f>
+              <c:f>'Ramdom Data'!$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -926,7 +958,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$32:$A$35</c:f>
+              <c:f>'Ramdom Data'!$A$32:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -947,7 +979,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$32:$B$35</c:f>
+              <c:f>'Ramdom Data'!$B$32:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -977,7 +1009,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$31</c:f>
+              <c:f>'Ramdom Data'!$C$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -998,7 +1030,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$32:$A$35</c:f>
+              <c:f>'Ramdom Data'!$A$32:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1019,7 +1051,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$32:$C$35</c:f>
+              <c:f>'Ramdom Data'!$C$32:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1049,7 +1081,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$31</c:f>
+              <c:f>'Ramdom Data'!$D$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1070,7 +1102,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$32:$A$35</c:f>
+              <c:f>'Ramdom Data'!$A$32:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1091,7 +1123,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$32:$D$35</c:f>
+              <c:f>'Ramdom Data'!$D$32:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1121,7 +1153,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$E$31</c:f>
+              <c:f>'Ramdom Data'!$E$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1142,7 +1174,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$32:$A$35</c:f>
+              <c:f>'Ramdom Data'!$A$32:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1163,7 +1195,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$32:$E$35</c:f>
+              <c:f>'Ramdom Data'!$E$32:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1193,7 +1225,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$F$31</c:f>
+              <c:f>'Ramdom Data'!$F$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1214,7 +1246,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$32:$A$35</c:f>
+              <c:f>'Ramdom Data'!$A$32:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1235,7 +1267,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$32:$F$35</c:f>
+              <c:f>'Ramdom Data'!$F$32:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1265,7 +1297,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$G$31</c:f>
+              <c:f>'Ramdom Data'!$G$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1288,7 +1320,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$32:$A$35</c:f>
+              <c:f>'Ramdom Data'!$A$32:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1309,7 +1341,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$32:$G$35</c:f>
+              <c:f>'Ramdom Data'!$G$32:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1626,7 +1658,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$55</c:f>
+              <c:f>'Ramdom Data'!$B$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1647,7 +1679,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$56:$A$59</c:f>
+              <c:f>'Ramdom Data'!$A$56:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1668,7 +1700,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$56:$B$59</c:f>
+              <c:f>'Ramdom Data'!$B$56:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1698,7 +1730,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$55</c:f>
+              <c:f>'Ramdom Data'!$C$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1719,7 +1751,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$56:$A$59</c:f>
+              <c:f>'Ramdom Data'!$A$56:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1740,7 +1772,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$56:$C$59</c:f>
+              <c:f>'Ramdom Data'!$C$56:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1770,7 +1802,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$55</c:f>
+              <c:f>'Ramdom Data'!$D$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1791,7 +1823,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$56:$A$59</c:f>
+              <c:f>'Ramdom Data'!$A$56:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1812,7 +1844,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$56:$D$59</c:f>
+              <c:f>'Ramdom Data'!$D$56:$D$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1842,7 +1874,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$E$55</c:f>
+              <c:f>'Ramdom Data'!$E$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1863,7 +1895,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$56:$A$59</c:f>
+              <c:f>'Ramdom Data'!$A$56:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1884,7 +1916,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$56:$E$59</c:f>
+              <c:f>'Ramdom Data'!$E$56:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1914,7 +1946,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$F$55</c:f>
+              <c:f>'Ramdom Data'!$F$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1935,7 +1967,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$56:$A$59</c:f>
+              <c:f>'Ramdom Data'!$A$56:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1956,7 +1988,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$56:$F$59</c:f>
+              <c:f>'Ramdom Data'!$F$56:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1986,7 +2018,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$G$55</c:f>
+              <c:f>'Ramdom Data'!$G$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2009,7 +2041,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$56:$A$59</c:f>
+              <c:f>'Ramdom Data'!$A$56:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2030,7 +2062,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$56:$G$59</c:f>
+              <c:f>'Ramdom Data'!$G$56:$G$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2339,7 +2371,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$79</c:f>
+              <c:f>'Ramdom Data'!$B$79</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2360,7 +2392,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$80:$A$83</c:f>
+              <c:f>'Ramdom Data'!$A$80:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2381,7 +2413,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$80:$B$83</c:f>
+              <c:f>'Ramdom Data'!$B$80:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2411,7 +2443,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$79</c:f>
+              <c:f>'Ramdom Data'!$C$79</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2432,7 +2464,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$80:$A$83</c:f>
+              <c:f>'Ramdom Data'!$A$80:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2453,7 +2485,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$80:$C$83</c:f>
+              <c:f>'Ramdom Data'!$C$80:$C$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2483,7 +2515,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$79</c:f>
+              <c:f>'Ramdom Data'!$D$79</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2504,7 +2536,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$80:$A$83</c:f>
+              <c:f>'Ramdom Data'!$A$80:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2525,7 +2557,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$80:$D$83</c:f>
+              <c:f>'Ramdom Data'!$D$80:$D$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2555,7 +2587,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$E$79</c:f>
+              <c:f>'Ramdom Data'!$E$79</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2576,7 +2608,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$80:$A$83</c:f>
+              <c:f>'Ramdom Data'!$A$80:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2597,7 +2629,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$80:$E$83</c:f>
+              <c:f>'Ramdom Data'!$E$80:$E$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2627,7 +2659,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$F$79</c:f>
+              <c:f>'Ramdom Data'!$F$79</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2648,7 +2680,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$80:$A$83</c:f>
+              <c:f>'Ramdom Data'!$A$80:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2669,7 +2701,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$80:$F$83</c:f>
+              <c:f>'Ramdom Data'!$F$80:$F$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2699,7 +2731,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$G$79</c:f>
+              <c:f>'Ramdom Data'!$G$79</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2722,7 +2754,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$80:$A$83</c:f>
+              <c:f>'Ramdom Data'!$A$80:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2743,7 +2775,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$80:$G$83</c:f>
+              <c:f>'Ramdom Data'!$G$80:$G$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2899,6 +2931,2844 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Collections of 10 distinct values</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$6:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$B$6:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E781-4C1D-A30E-954FE1585162}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitSorterUIntOptimized(8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$6:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$C$6:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E781-4C1D-A30E-954FE1585162}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitSorterUIntOptimized(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$6:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$D$6:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E781-4C1D-A30E-954FE1585162}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitSorterUIntOptimized(16)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$6:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$E$6:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E781-4C1D-A30E-954FE1585162}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitSorterUIntOptimized(20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$6:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$F$6:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E781-4C1D-A30E-954FE1585162}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitSorterUIntOptimized(24)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$6:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$G$6:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E781-4C1D-A30E-954FE1585162}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="293066479"/>
+        <c:axId val="293059407"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="293066479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293059407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="293059407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293066479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Collection of 1000 distinct values</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$32:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$B$32:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C7D-4DA5-BFB4-8B9E79984F0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitSorterUIntOptimized(8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$32:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$C$32:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7C7D-4DA5-BFB4-8B9E79984F0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitSorterUIntOptimized(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$32:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$D$32:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7C7D-4DA5-BFB4-8B9E79984F0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitSorterUIntOptimized(16)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$32:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$E$32:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7C7D-4DA5-BFB4-8B9E79984F0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$F$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitSorterUIntOptimized(20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$32:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$F$32:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7C7D-4DA5-BFB4-8B9E79984F0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$G$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitSorterUIntOptimized(24)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$32:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$G$32:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7C7D-4DA5-BFB4-8B9E79984F0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="181280031"/>
+        <c:axId val="181285855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="181280031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181285855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="181285855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181280031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Collection of 100000 distinct values</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$B$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$56:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$B$56:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE95-45D4-B6EE-7EC60F7ABBDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$C$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitSorterUIntOptimized(8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$56:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$C$56:$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>438</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE95-45D4-B6EE-7EC60F7ABBDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$D$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitSorterUIntOptimized(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$56:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$D$56:$D$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BE95-45D4-B6EE-7EC60F7ABBDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$E$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitSorterUIntOptimized(16)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$56:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$E$56:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BE95-45D4-B6EE-7EC60F7ABBDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$F$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitSorterUIntOptimized(20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$56:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$F$56:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BE95-45D4-B6EE-7EC60F7ABBDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$G$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitSorterUIntOptimized(24)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$56:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$G$56:$G$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BE95-45D4-B6EE-7EC60F7ABBDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="211813343"/>
+        <c:axId val="211821663"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="211813343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211821663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="211821663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211813343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Collection of 10000000 distinct values</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$B$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$80:$A$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$B$80:$B$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08B7-406D-8B88-1BCA30AA3D7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$C$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitSorterUIntOptimized(8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$80:$A$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$C$80:$C$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>943</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-08B7-406D-8B88-1BCA30AA3D7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$D$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitSorterUIntOptimized(12)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$80:$A$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$D$80:$D$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>710</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-08B7-406D-8B88-1BCA30AA3D7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$E$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitSorterUIntOptimized(16)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$80:$A$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$E$80:$E$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>509</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-08B7-406D-8B88-1BCA30AA3D7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$F$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitSorterUIntOptimized(20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$80:$A$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$F$80:$F$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-08B7-406D-8B88-1BCA30AA3D7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CountBit Parameter RD'!$G$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BitSorterUIntOptimized(24)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$A$80:$A$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CountBit Parameter RD'!$G$80:$G$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-08B7-406D-8B88-1BCA30AA3D7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="211810847"/>
+        <c:axId val="211823327"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="211810847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211823327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="211823327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211810847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3125,6 +5995,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4635,6 +7665,2018 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5245,6 +10287,131 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5527,8 +10694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5986,4 +11153,525 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="B9">
+        <v>121</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>61</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B33">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B34">
+        <v>49</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="B35">
+        <v>371</v>
+      </c>
+      <c r="C35">
+        <v>105</v>
+      </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>27</v>
+      </c>
+      <c r="F35">
+        <v>24</v>
+      </c>
+      <c r="G35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>185</v>
+      </c>
+      <c r="C56">
+        <v>53</v>
+      </c>
+      <c r="D56">
+        <v>11</v>
+      </c>
+      <c r="E56">
+        <v>13</v>
+      </c>
+      <c r="F56">
+        <v>12</v>
+      </c>
+      <c r="G56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B57">
+        <v>125</v>
+      </c>
+      <c r="C57">
+        <v>36</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>9</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B58">
+        <v>77</v>
+      </c>
+      <c r="C58">
+        <v>39</v>
+      </c>
+      <c r="D58">
+        <v>26</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="B59">
+        <v>704</v>
+      </c>
+      <c r="C59">
+        <v>438</v>
+      </c>
+      <c r="D59">
+        <v>253</v>
+      </c>
+      <c r="E59">
+        <v>62</v>
+      </c>
+      <c r="F59">
+        <v>27</v>
+      </c>
+      <c r="G59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <v>352</v>
+      </c>
+      <c r="C80">
+        <v>219</v>
+      </c>
+      <c r="D80">
+        <v>128</v>
+      </c>
+      <c r="E80">
+        <v>38</v>
+      </c>
+      <c r="F80">
+        <v>19</v>
+      </c>
+      <c r="G80">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B81">
+        <v>237</v>
+      </c>
+      <c r="C81">
+        <v>149</v>
+      </c>
+      <c r="D81">
+        <v>91</v>
+      </c>
+      <c r="E81">
+        <v>31</v>
+      </c>
+      <c r="F81">
+        <v>18</v>
+      </c>
+      <c r="G81">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B82">
+        <v>86</v>
+      </c>
+      <c r="C82">
+        <v>108</v>
+      </c>
+      <c r="D82">
+        <v>75</v>
+      </c>
+      <c r="E82">
+        <v>56</v>
+      </c>
+      <c r="F82">
+        <v>38</v>
+      </c>
+      <c r="G82">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="B83">
+        <v>1009</v>
+      </c>
+      <c r="C83">
+        <v>943</v>
+      </c>
+      <c r="D83">
+        <v>710</v>
+      </c>
+      <c r="E83">
+        <v>509</v>
+      </c>
+      <c r="F83">
+        <v>303</v>
+      </c>
+      <c r="G83">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Comparison.xlsx
+++ b/Comparison.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Ramdom Data" sheetId="1" r:id="rId1"/>
@@ -30,15 +30,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
-  <si>
-    <t>BitSorterUIntOptimized2</t>
-  </si>
-  <si>
-    <t>BitSorterUIntOptimized</t>
-  </si>
-  <si>
-    <t>BitSorterUIntMT</t>
-  </si>
   <si>
     <t>RadixBitUIntSorter3</t>
   </si>
@@ -65,6 +56,15 @@
   </si>
   <si>
     <t>Counting Bit Sort parameter from 8 bits to 24 bits</t>
+  </si>
+  <si>
+    <t>QuickBitSorter3UInt</t>
+  </si>
+  <si>
+    <t>QuickBitSorterMTUInt</t>
+  </si>
+  <si>
+    <t>MixedBitSorterMTUInt</t>
   </si>
 </sst>
 </file>
@@ -274,13 +274,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -300,7 +300,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JavaParallel</c:v>
+                  <c:v>QuickBitSorter3UInt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -343,16 +343,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -372,7 +372,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BitSorterUIntOptimized</c:v>
+                  <c:v>RadixBitUIntSorter3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -421,10 +421,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -444,7 +444,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BitSorterUIntOptimized2</c:v>
+                  <c:v>JavaParallel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -493,10 +493,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -516,7 +516,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BitSorterUIntMT</c:v>
+                  <c:v>QuickBitSorterMTUInt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -562,13 +562,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,7 +588,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RadixBitUIntSorter3</c:v>
+                  <c:v>MixedBitSorterMTUInt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -639,10 +639,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,10 +984,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>34</c:v>
@@ -1013,7 +1013,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JavaParallel</c:v>
+                  <c:v>QuickBitSorter3UInt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1056,16 +1056,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,7 +1085,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BitSorterUIntOptimized</c:v>
+                  <c:v>RadixBitUIntSorter3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1128,16 +1128,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1157,7 +1157,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BitSorterUIntOptimized2</c:v>
+                  <c:v>JavaParallel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1200,16 +1200,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1229,7 +1229,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BitSorterUIntMT</c:v>
+                  <c:v>QuickBitSorterMTUInt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1272,16 +1272,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1301,7 +1301,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RadixBitUIntSorter3</c:v>
+                  <c:v>MixedBitSorterMTUInt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1346,16 +1346,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>144</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1705,16 +1705,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>154</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>104</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>535</c:v>
+                  <c:v>596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,7 +1734,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JavaParallel</c:v>
+                  <c:v>QuickBitSorter3UInt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1777,16 +1777,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1806,7 +1806,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BitSorterUIntOptimized</c:v>
+                  <c:v>RadixBitUIntSorter3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1849,16 +1849,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1878,7 +1878,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BitSorterUIntOptimized2</c:v>
+                  <c:v>JavaParallel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1921,16 +1921,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1950,7 +1950,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BitSorterUIntMT</c:v>
+                  <c:v>QuickBitSorterMTUInt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1993,16 +1993,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2022,7 +2022,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RadixBitUIntSorter3</c:v>
+                  <c:v>MixedBitSorterMTUInt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2067,16 +2067,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>73</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>136</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2418,16 +2418,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>267</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>715</c:v>
+                  <c:v>809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2447,7 +2447,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JavaParallel</c:v>
+                  <c:v>QuickBitSorter3UInt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2490,16 +2490,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2519,7 +2519,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BitSorterUIntOptimized</c:v>
+                  <c:v>RadixBitUIntSorter3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2562,16 +2562,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>360</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,7 +2591,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BitSorterUIntOptimized2</c:v>
+                  <c:v>JavaParallel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2634,16 +2634,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>372</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2663,7 +2663,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BitSorterUIntMT</c:v>
+                  <c:v>QuickBitSorterMTUInt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2706,16 +2706,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2735,7 +2735,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RadixBitUIntSorter3</c:v>
+                  <c:v>MixedBitSorterMTUInt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2780,16 +2780,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>166</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3042,7 +3042,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3641,7 +3640,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10694,30 +10692,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -10728,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10748,10 +10746,10 @@
         <v>1000</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>0</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10760,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -10771,22 +10769,22 @@
         <v>100000</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -10794,42 +10792,42 @@
         <v>10000000</v>
       </c>
       <c r="B9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D9">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>41</v>
+      </c>
+      <c r="F9">
+        <v>23</v>
+      </c>
+      <c r="G9">
         <v>22</v>
-      </c>
-      <c r="E9">
-        <v>32</v>
-      </c>
-      <c r="F9">
-        <v>22</v>
-      </c>
-      <c r="G9">
-        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -10837,22 +10835,22 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -10860,22 +10858,22 @@
         <v>1000</v>
       </c>
       <c r="B33">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -10886,19 +10884,19 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
       <c r="G34">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -10909,39 +10907,39 @@
         <v>339</v>
       </c>
       <c r="C35">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="E35">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F35">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G35">
-        <v>144</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -10949,22 +10947,22 @@
         <v>10</v>
       </c>
       <c r="B56">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -10972,22 +10970,22 @@
         <v>1000</v>
       </c>
       <c r="B57">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="C57">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -10995,22 +10993,22 @@
         <v>100000</v>
       </c>
       <c r="B58">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>11</v>
+      </c>
+      <c r="E58">
         <v>8</v>
-      </c>
-      <c r="D58">
-        <v>6</v>
-      </c>
-      <c r="E58">
-        <v>6</v>
       </c>
       <c r="F58">
         <v>6</v>
       </c>
       <c r="G58">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -11018,42 +11016,42 @@
         <v>10000000</v>
       </c>
       <c r="B59">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="C59">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D59">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="E59">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F59">
+        <v>55</v>
+      </c>
+      <c r="G59">
         <v>52</v>
-      </c>
-      <c r="G59">
-        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G79" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -11061,22 +11059,22 @@
         <v>10</v>
       </c>
       <c r="B80">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D80">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G80">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -11084,22 +11082,22 @@
         <v>1000</v>
       </c>
       <c r="B81">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="C81">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D81">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G81">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -11107,22 +11105,22 @@
         <v>100000</v>
       </c>
       <c r="B82">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C82">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D82">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="E82">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F82">
         <v>17</v>
       </c>
       <c r="G82">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -11130,22 +11128,22 @@
         <v>10000000</v>
       </c>
       <c r="B83">
-        <v>715</v>
+        <v>809</v>
       </c>
       <c r="C83">
-        <v>87</v>
+        <v>371</v>
       </c>
       <c r="D83">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="E83">
-        <v>372</v>
+        <v>93</v>
       </c>
       <c r="F83">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G83">
-        <v>166</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -11159,7 +11157,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11168,27 +11168,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -11285,22 +11285,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>4</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
         <v>7</v>
       </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -11397,22 +11397,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
         <v>4</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
         <v>7</v>
       </c>
-      <c r="D55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" t="s">
-        <v>10</v>
-      </c>
       <c r="G55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -11509,22 +11509,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
         <v>4</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>3</v>
+      </c>
+      <c r="F79" t="s">
         <v>7</v>
       </c>
-      <c r="D79" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" t="s">
-        <v>10</v>
-      </c>
       <c r="G79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
